--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail7 Features.xlsx
@@ -3692,7 +3692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3703,29 +3703,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3746,115 +3744,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3871,72 +3859,66 @@
         <v>1.015584461316228e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4135927463753108</v>
+        <v>4.507797159942183e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.517484065146931</v>
+        <v>2.762196189520695e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.507797159942183e-07</v>
+        <v>-0.06545169451945576</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.762196189520695e-06</v>
+        <v>0.1266504107533754</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.06545169451945576</v>
+        <v>0.02029767061690549</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1266504107533754</v>
+        <v>1.835377448153312</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02029767061690549</v>
+        <v>1.869775967952107</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.787882723677203</v>
+        <v>3.769530537285802</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.869775967952107</v>
+        <v>1.481609882644455e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.769530537285802</v>
+        <v>128916093.697049</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.481609882644455e-15</v>
+        <v>9.295721149345862e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>128916093.697049</v>
+        <v>24.6234068548381</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.295721149345862e-07</v>
+        <v>0.0001519538323192346</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>24.6234068548381</v>
+        <v>9.878665658082687</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001519538323192346</v>
+        <v>1.114564708552791</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.878665658082687</v>
+        <v>0.01482887593474079</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.114564708552791</v>
+        <v>2.728416419833387</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01482887593474079</v>
+        <v>0.9556016191357348</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.728416419833387</v>
+        <v>1.630311980481178</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9556016191357348</v>
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.630311980481178</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2086551278317893</v>
       </c>
     </row>
@@ -3951,72 +3933,66 @@
         <v>9.522502705638243e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2471475387306277</v>
+        <v>3.916096875768954e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.040481652627251</v>
+        <v>2.756120506278752e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.916096875768954e-07</v>
+        <v>-0.05802620281115203</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.756120506278752e-06</v>
+        <v>0.1157899666375849</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.05802620281115203</v>
+        <v>0.01675368623319738</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1157899666375849</v>
+        <v>1.830821193175912</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01675368623319738</v>
+        <v>1.812974194820125</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.780171944247597</v>
+        <v>3.897772503344591</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.812974194820125</v>
+        <v>1.754788368340571e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.897772503344591</v>
+        <v>105086827.9463385</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.754788368340571e-15</v>
+        <v>1.135469877756569e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>105086827.9463385</v>
+        <v>19.37855157122538</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.135469877756569e-06</v>
+        <v>0.0001544763224765495</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>19.37855157122538</v>
+        <v>10.01145086613824</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001544763224765495</v>
+        <v>1.102926573346465</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.01145086613824</v>
+        <v>0.01548303025675525</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.102926573346465</v>
+        <v>2.643780217353977</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01548303025675525</v>
+        <v>0.9539194100258143</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.643780217353977</v>
+        <v>1.65398033654048</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9539194100258143</v>
+        <v>16</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.65398033654048</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2082627092526781</v>
       </c>
     </row>
@@ -4031,72 +4007,66 @@
         <v>9.054237969344973e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1554286260924868</v>
+        <v>3.435231290487833e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.343431531507248</v>
+        <v>2.751126383836327e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.435231290487833e-07</v>
+        <v>-0.04943477243968759</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.751126383836327e-06</v>
+        <v>0.1088202329081483</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04943477243968759</v>
+        <v>0.0142685527314649</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1088202329081483</v>
+        <v>1.825955181118263</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0142685527314649</v>
+        <v>1.767430930495111</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.77042047659988</v>
+        <v>3.742721701217332</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.767430930495111</v>
+        <v>1.903192210285349e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.742721701217332</v>
+        <v>96358521.27352227</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.903192210285349e-15</v>
+        <v>1.23747512001862e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>96358521.27352227</v>
+        <v>17.67107234140321</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.23747512001862e-06</v>
+        <v>0.0001563648656930064</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>17.67107234140321</v>
+        <v>9.299098405109959</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001563648656930064</v>
+        <v>1.171537446262873</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.299098405109959</v>
+        <v>0.01352137517448459</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.171537446262873</v>
+        <v>2.707801274905066</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01352137517448459</v>
+        <v>0.9542512453458607</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.707801274905066</v>
+        <v>1.634091836933255</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9542512453458607</v>
+        <v>16</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.634091836933255</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2022638676829825</v>
       </c>
     </row>
@@ -4111,72 +4081,66 @@
         <v>8.702412949604292e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1188052056541609</v>
+        <v>3.049326635396178e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.483619737983769</v>
+        <v>2.747143415739224e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.049326635396178e-07</v>
+        <v>-0.0404199875613294</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.747143415739224e-06</v>
+        <v>0.1063690102759434</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0404199875613294</v>
+        <v>0.01293599875061967</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1063690102759434</v>
+        <v>1.754670430637739</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01293599875061967</v>
+        <v>1.686981288703581</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.692621774806248</v>
+        <v>3.984279119303688</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.686981288703581</v>
+        <v>2.02260475163692e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.984279119303688</v>
+        <v>93809084.17063056</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.02260475163692e-15</v>
+        <v>1.236366194159813e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>93809084.17063056</v>
+        <v>17.7992136215236</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.236366194159813e-06</v>
+        <v>0.000156689067750912</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>17.7992136215236</v>
+        <v>8.763242243024253</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000156689067750912</v>
+        <v>1.231441430126443</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.763242243024253</v>
+        <v>0.01203284523370612</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.231441430126443</v>
+        <v>2.751092227740201</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01203284523370612</v>
+        <v>0.9530850087246827</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.751092227740201</v>
+        <v>1.662952310517438</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9530850087246827</v>
+        <v>17</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.662952310517438</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2031888140113725</v>
       </c>
     </row>
@@ -4191,72 +4155,66 @@
         <v>8.433272057552501e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1143013607140314</v>
+        <v>2.758900013095815e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.525776773785482</v>
+        <v>2.743992148324092e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.758900013095815e-07</v>
+        <v>-0.03380231365386129</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.743992148324092e-06</v>
+        <v>0.1047509163559434</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03380231365386129</v>
+        <v>0.01210960553006101</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1047509163559434</v>
+        <v>1.724567933930551</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01210960553006101</v>
+        <v>1.519799195665903</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.650617622239827</v>
+        <v>4.296493742493512</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.519799195665903</v>
+        <v>3.400780293708127e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.296493742493512</v>
+        <v>57123406.41551621</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.400780293708127e-15</v>
+        <v>2.029468501558948e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>57123406.41551621</v>
+        <v>11.09703026931297</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.029468501558948e-06</v>
+        <v>0.0001660771715776606</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>11.09703026931297</v>
+        <v>8.070608545819429</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001660771715776606</v>
+        <v>1.531300272552568</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.070608545819429</v>
+        <v>0.01081739045105606</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.531300272552568</v>
+        <v>2.875283235955755</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01081739045105606</v>
+        <v>0.9518999684857292</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.875283235955755</v>
+        <v>1.793501527848408</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9518999684857292</v>
+        <v>17</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.793501527848408</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.192559450757265</v>
       </c>
     </row>
@@ -4271,72 +4229,66 @@
         <v>8.224592486733065e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1310909480563768</v>
+        <v>2.538770113575021e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.51703069542935</v>
+        <v>2.741320608473587e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.538770113575021e-07</v>
+        <v>-0.0309930402589858</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.741320608473587e-06</v>
+        <v>0.103179664841662</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0309930402589858</v>
+        <v>0.01160246160891928</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.103179664841662</v>
+        <v>1.713425687368288</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01160246160891928</v>
+        <v>1.542477917894471</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.631149296272003</v>
+        <v>3.887401767262471</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.542477917894471</v>
+        <v>4.154206558875207e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.887401767262471</v>
+        <v>47841921.95298293</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.154206558875207e-15</v>
+        <v>2.413527143785972e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>47841921.95298293</v>
+        <v>9.508353589206603</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.413527143785972e-06</v>
+        <v>0.0001870654481051561</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>9.508353589206603</v>
+        <v>8.994312480411836</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001870654481051561</v>
+        <v>1.562694808883601</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.994312480411836</v>
+        <v>0.01513315645648153</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.562694808883601</v>
+        <v>2.840072979996289</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01513315645648153</v>
+        <v>0.9530528142230117</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.840072979996289</v>
+        <v>1.755017778359976</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9530528142230117</v>
+        <v>17</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.755017778359976</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1655534554289896</v>
       </c>
     </row>
@@ -4351,72 +4303,66 @@
         <v>8.058947536160722e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1658414890800638</v>
+        <v>2.388562187934511e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.482402914211128</v>
+        <v>2.738808541976357e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.388562187934511e-07</v>
+        <v>-0.03118459935771347</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.738808541976357e-06</v>
+        <v>0.1046686681035953</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03118459935771347</v>
+        <v>0.0119245941692584</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1046686681035953</v>
+        <v>1.714466096520596</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0119245941692584</v>
+        <v>1.625509540866146</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.630282772444861</v>
+        <v>3.912305822233051</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.625509540866146</v>
+        <v>4.101487107415932e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.912305822233051</v>
+        <v>50179522.7692747</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.101487107415932e-15</v>
+        <v>2.309649973689062e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>50179522.7692747</v>
+        <v>10.32748098537496</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.309649973689062e-06</v>
+        <v>0.0001637300956266029</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>10.32748098537496</v>
+        <v>10.05215690357853</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001637300956266029</v>
+        <v>1.184918616200672</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.05215690357853</v>
+        <v>0.01654424806082285</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.184918616200672</v>
+        <v>2.795760841871575</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01654424806082285</v>
+        <v>0.9520845360386275</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.795760841871575</v>
+        <v>1.766431228628325</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9520845360386275</v>
+        <v>17</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.766431228628325</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1687816970318739</v>
       </c>
     </row>
@@ -4431,72 +4377,66 @@
         <v>7.921442416712913e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2142390300531541</v>
+        <v>2.302870922845712e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.435758672593837</v>
+        <v>2.736250004523151e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.302870922845712e-07</v>
+        <v>-0.03305953905228901</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.736250004523151e-06</v>
+        <v>0.1080106083346417</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03305953905228901</v>
+        <v>0.01275625978924223</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1080106083346417</v>
+        <v>1.733909364430378</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01275625978924223</v>
+        <v>1.649295630928265</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.652501826823732</v>
+        <v>3.943161168422233</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.649295630928265</v>
+        <v>4.037549743665551e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.943161168422233</v>
+        <v>50601266.86694572</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.037549743665551e-15</v>
+        <v>2.299897610537178e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>50601266.86694572</v>
+        <v>10.33809851004878</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.299897610537178e-06</v>
+        <v>0.0001583096309777994</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>10.33809851004878</v>
+        <v>10.46212559858587</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001583096309777994</v>
+        <v>1.141722224827036</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.46212559858587</v>
+        <v>0.01732795037302455</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.141722224827036</v>
+        <v>2.622627039814691</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01732795037302455</v>
+        <v>0.9518071363642481</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.622627039814691</v>
+        <v>1.759562051201803</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9518071363642481</v>
+        <v>23</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.759562051201803</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1775347451914763</v>
       </c>
     </row>
@@ -4511,72 +4451,66 @@
         <v>7.804793184055273e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2721989377775125</v>
+        <v>2.302870922845712e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.381934121440784</v>
+        <v>2.733558901451222e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.302870922845712e-07</v>
+        <v>-0.03548384162970453</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.733558901451222e-06</v>
+        <v>0.1113550272242186</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03548384162970453</v>
+        <v>0.01365687135287063</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1113550272242186</v>
+        <v>1.736101292883411</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01365687135287063</v>
+        <v>1.655749676101443</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.652449533661173</v>
+        <v>4.034380971782087</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.655749676101443</v>
+        <v>3.857030996375422e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.034380971782087</v>
+        <v>52742504.04222351</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.857030996375422e-15</v>
+        <v>2.203609202359037e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>52742504.04222351</v>
+        <v>10.72937979764873</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.203609202359037e-06</v>
+        <v>0.0001533598853973062</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>10.72937979764873</v>
+        <v>9.584449576012284</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001533598853973062</v>
+        <v>1.201317468742187</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.584449576012284</v>
+        <v>0.01408789574722146</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.201317468742187</v>
+        <v>2.736474982832403</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01408789574722146</v>
+        <v>0.9500303411775395</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.736474982832403</v>
+        <v>1.751450090858783</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9500303411775395</v>
+        <v>23</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.751450090858783</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1740538147124625</v>
       </c>
     </row>
@@ -4591,72 +4525,66 @@
         <v>7.703461933052062e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3356306333521104</v>
+        <v>2.302870922845712e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.321264941073779</v>
+        <v>2.730710908792157e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.302870922845712e-07</v>
+        <v>-0.03799549146303158</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.730710908792157e-06</v>
+        <v>0.1140310246483626</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03799549146303158</v>
+        <v>0.0144454951593099</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1140310246483626</v>
+        <v>1.739595579803496</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0144454951593099</v>
+        <v>1.667297622350065</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.659916959602004</v>
+        <v>4.042088718110621</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.667297622350065</v>
+        <v>3.842335291329784e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.042088718110621</v>
+        <v>50003053.88527308</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.842335291329784e-15</v>
+        <v>2.303443253931643e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>50003053.88527308</v>
+        <v>9.607011669274948</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.303443253931643e-06</v>
+        <v>0.0001557258520601703</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>9.607011669274948</v>
+        <v>8.322606417352773</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001557258520601703</v>
+        <v>1.35224509255272</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.322606417352773</v>
+        <v>0.01078647223196945</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.35224509255272</v>
+        <v>2.866420582187458</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01078647223196945</v>
+        <v>0.9508750733505219</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.866420582187458</v>
+        <v>1.768208165880213</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9508750733505219</v>
+        <v>23</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.768208165880213</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1618340486876268</v>
       </c>
     </row>
@@ -4671,72 +4599,66 @@
         <v>7.608836572152806e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.4008664745769302</v>
+        <v>2.302870922845712e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.252215536557946</v>
+        <v>2.727705667886592e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.302870922845712e-07</v>
+        <v>-0.04055921341816066</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.727705667886592e-06</v>
+        <v>0.1158125964887575</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04055921341816066</v>
+        <v>0.01505713453184257</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1158125964887575</v>
+        <v>1.749975692190756</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01505713453184257</v>
+        <v>1.582573350665</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.672335823254544</v>
+        <v>3.97780564369949</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.582573350665</v>
+        <v>3.967526383300767e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.97780564369949</v>
+        <v>47866960.36556878</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.967526383300767e-15</v>
+        <v>2.409045923054537e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>47866960.36556878</v>
+        <v>9.090578537609534</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.409045923054537e-06</v>
+        <v>0.0001739623622024582</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>9.090578537609534</v>
+        <v>8.587780925025015</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001739623622024582</v>
+        <v>1.467537773271566</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.587780925025015</v>
+        <v>0.01282972094476116</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.467537773271566</v>
+        <v>2.814296048168146</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01282972094476116</v>
+        <v>0.9503074610636457</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.814296048168146</v>
+        <v>1.80075942908333</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9503074610636457</v>
+        <v>22</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.80075942908333</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.148819767535958</v>
       </c>
     </row>
@@ -4751,72 +4673,66 @@
         <v>7.505304362654753e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4647234058831012</v>
+        <v>2.302870922845712e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.174209167002426</v>
+        <v>2.724541314591378e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.302870922845712e-07</v>
+        <v>-0.04304163647645643</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.724541314591378e-06</v>
+        <v>0.1168857302087677</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04304163647645643</v>
+        <v>0.01551489372761418</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1168857302087677</v>
+        <v>1.755954759170145</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01551489372761418</v>
+        <v>1.634179589558198</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.678699238443395</v>
+        <v>3.897596018452691</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.634179589558198</v>
+        <v>4.132504133822994e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.897596018452691</v>
+        <v>44540223.4439998</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.132504133822994e-15</v>
+        <v>2.570995718987602e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>44540223.4439998</v>
+        <v>8.198191892912494</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.570995718987602e-06</v>
+        <v>0.0001757516485607122</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>8.198191892912494</v>
+        <v>10.31836986867993</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001757516485607122</v>
+        <v>1.185503689920782</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.31836986867993</v>
+        <v>0.01871205951847394</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.185503689920782</v>
+        <v>2.671252160383786</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01871205951847394</v>
+        <v>0.9486386174489073</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.671252160383786</v>
+        <v>1.77943884317095</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9486386174489073</v>
+        <v>15</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.77943884317095</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1518418936832656</v>
       </c>
     </row>
@@ -4831,72 +4747,66 @@
         <v>7.382546351519616e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5264506461802886</v>
+        <v>2.302870922845712e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.087278143461566</v>
+        <v>2.721283101533317e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.302870922845712e-07</v>
+        <v>-0.04423301980701416</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.721283101533317e-06</v>
+        <v>0.1186252980440505</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04423301980701416</v>
+        <v>0.01602876650503453</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1186252980440505</v>
+        <v>1.737169485871369</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01602876650503453</v>
+        <v>1.627584506986866</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.654740075986499</v>
+        <v>3.873037712568142</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.627584506986866</v>
+        <v>4.185077367250973e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.873037712568142</v>
+        <v>44056900.0704159</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.185077367250973e-15</v>
+        <v>2.589328700030528e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>44056900.0704159</v>
+        <v>8.123278878006301</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.589328700030528e-06</v>
+        <v>0.0001680926231258501</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>8.123278878006301</v>
+        <v>11.12999981500578</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001680926231258501</v>
+        <v>1.088714049447058</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.12999981500578</v>
+        <v>0.02082279237349802</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.088714049447058</v>
+        <v>2.534053997115702</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02082279237349802</v>
+        <v>0.9519163713713811</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.534053997115702</v>
+        <v>1.755599593028683</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9519163713713811</v>
+        <v>18</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.755599593028683</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1641132292876411</v>
       </c>
     </row>
@@ -4911,72 +4821,66 @@
         <v>7.24556714778447e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5883147122650805</v>
+        <v>2.302870922845712e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.9878980917172795</v>
+        <v>2.718028531468913e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.302870922845712e-07</v>
+        <v>-0.04476600268810006</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.718028531468913e-06</v>
+        <v>0.1209283892447372</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04476600268810006</v>
+        <v>0.01662777789813852</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1209283892447372</v>
+        <v>1.736810705092338</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01662777789813852</v>
+        <v>1.599071207087862</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.650913363965815</v>
+        <v>3.85965139054045</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.599071207087862</v>
+        <v>4.214157685042215e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.85965139054045</v>
+        <v>43783485.04707617</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.214157685042215e-15</v>
+        <v>2.607796873033681e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>43783485.04707617</v>
+        <v>8.078513155134711</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.607796873033681e-06</v>
+        <v>0.0001552860172704473</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>8.078513155134711</v>
+        <v>9.502891363415603</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001552860172704473</v>
+        <v>1.186434462805479</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.502891363415603</v>
+        <v>0.01402309513472276</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.186434462805479</v>
+        <v>2.789364139185986</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01402309513472276</v>
+        <v>0.9533221170715422</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.789364139185986</v>
+        <v>1.786924087937992</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9533221170715422</v>
+        <v>11</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.786924087937992</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1631075835635103</v>
       </c>
     </row>
@@ -4991,72 +4895,66 @@
         <v>7.10207765693978e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.6513643052765185</v>
+        <v>2.302870922845712e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.8732431965835197</v>
+        <v>2.714783743965477e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.302870922845712e-07</v>
+        <v>-0.04581288335681709</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.714783743965477e-06</v>
+        <v>0.1233675929641148</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04581288335681709</v>
+        <v>0.01731840953869993</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1233675929641148</v>
+        <v>1.729668413495429</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01731840953869993</v>
+        <v>1.533989329021566</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.649556349063017</v>
+        <v>3.86812852939475</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.533989329021566</v>
+        <v>4.195706977222261e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.86812852939475</v>
+        <v>43998277.59637082</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.195706977222261e-15</v>
+        <v>2.592531644183487e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>43998277.59637082</v>
+        <v>8.122252770668235</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.592531644183487e-06</v>
+        <v>0.0001563935136936886</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>8.122252770668235</v>
+        <v>8.221625802548097</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001563935136936886</v>
+        <v>1.400416595149922</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.221625802548097</v>
+        <v>0.01057144002020252</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.400416595149922</v>
+        <v>2.889290838427271</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01057144002020252</v>
+        <v>0.9522430039135845</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.889290838427271</v>
+        <v>1.792225258296835</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9522430039135845</v>
+        <v>11</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.792225258296835</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1602098236360539</v>
       </c>
     </row>
@@ -5071,72 +4969,66 @@
         <v>6.95321484826097e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.7148378961497124</v>
+        <v>2.302870922845712e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.7430011340700506</v>
+        <v>2.711516826214301e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.302870922845712e-07</v>
+        <v>-0.04710025772169064</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.711516826214301e-06</v>
+        <v>0.1260000854138118</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04710025772169064</v>
+        <v>0.01809450278008146</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1260000854138118</v>
+        <v>1.730818005728035</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01809450278008146</v>
+        <v>1.509295044132809</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.653085873116004</v>
+        <v>3.953599733078474</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.509295044132809</v>
+        <v>4.016257459053648e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.953599733078474</v>
+        <v>47092428.2181109</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.016257459053648e-15</v>
+        <v>2.423941128222571e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>47092428.2181109</v>
+        <v>8.906841296757602</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.423941128222571e-06</v>
+        <v>0.0001618037500493866</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8.906841296757602</v>
+        <v>8.350164911532609</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001618037500493866</v>
+        <v>1.414593177734189</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.350164911532609</v>
+        <v>0.01128180757840227</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.414593177734189</v>
+        <v>2.853568440917675</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01128180757840227</v>
+        <v>0.9544790735726537</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.853568440917675</v>
+        <v>1.769110712084553</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9544790735726537</v>
+        <v>18</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.769110712084553</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1612149623790667</v>
       </c>
     </row>
@@ -5513,7 +5405,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.457779346571109</v>
+        <v>1.397182820664862</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.39297757659023</v>
@@ -5602,7 +5494,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.475936754669085</v>
+        <v>1.411815798520371</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.359999177790172</v>
@@ -5691,7 +5583,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.502569480580602</v>
+        <v>1.429292122402876</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.508816757188706</v>
@@ -5780,7 +5672,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.529269719440787</v>
+        <v>1.442711271746514</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.699892450835447</v>
@@ -5869,7 +5761,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.505064532032125</v>
+        <v>1.42682533191271</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.565091866905171</v>
@@ -5958,7 +5850,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.464254289078687</v>
+        <v>1.395737982312984</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.531219551044599</v>
@@ -6047,7 +5939,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.457131250914327</v>
+        <v>1.396551759339726</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.240520611652673</v>
@@ -6136,7 +6028,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.463779075147514</v>
+        <v>1.393527506898665</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.295874033588351</v>
@@ -6225,7 +6117,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.460070305627282</v>
+        <v>1.390345704684778</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.4769990163952</v>
@@ -6314,7 +6206,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.474590732527234</v>
+        <v>1.403127857377233</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.514600718132302</v>
@@ -6403,7 +6295,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.491973445028874</v>
+        <v>1.409464332670358</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.538763427106363</v>
@@ -6492,7 +6384,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.492942183668778</v>
+        <v>1.407745338154543</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.447671762164374</v>
@@ -6581,7 +6473,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.489419016852944</v>
+        <v>1.405411850833203</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.605966105576441</v>
@@ -6670,7 +6562,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.490263208347376</v>
+        <v>1.409495234590516</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.375343418897176</v>
@@ -6759,7 +6651,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.5015723468769</v>
+        <v>1.419660075105636</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.500173883913019</v>
@@ -6848,7 +6740,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.496938915773995</v>
+        <v>1.420663418414713</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.374176042255498</v>
@@ -6937,7 +6829,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.499060543912974</v>
+        <v>1.427224123349726</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.485150369549984</v>
@@ -7026,7 +6918,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.50897578358947</v>
+        <v>1.435413467598358</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.468576721150648</v>
@@ -7115,7 +7007,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.501656059044345</v>
+        <v>1.428891085569676</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.343319093398428</v>
@@ -7204,7 +7096,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.505424278467119</v>
+        <v>1.437081076079859</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.33699483320052</v>
@@ -7293,7 +7185,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.580600954410972</v>
+        <v>1.48921557718229</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.60271085918309</v>
@@ -7382,7 +7274,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.600296517805257</v>
+        <v>1.501266007850689</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.401537729936169</v>
@@ -7471,7 +7363,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.63602751302332</v>
+        <v>1.530259623313358</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.330704997770232</v>
@@ -7560,7 +7452,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.648723132312859</v>
+        <v>1.547020669943389</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.736575001645694</v>
@@ -7649,7 +7541,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.655433862725196</v>
+        <v>1.555674113424781</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.497324293331857</v>
@@ -7738,7 +7630,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.656203376942683</v>
+        <v>1.564982861044944</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.488066735728129</v>
@@ -7827,7 +7719,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.652921947101176</v>
+        <v>1.572608890151906</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.383288156318785</v>
@@ -7916,7 +7808,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.643403429686547</v>
+        <v>1.563383519232763</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.409843256426411</v>
@@ -8005,7 +7897,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.624478145737703</v>
+        <v>1.550636441013756</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.448312565797208</v>
@@ -8094,7 +7986,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.625243101985242</v>
+        <v>1.544941912233562</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.481935398567409</v>
@@ -8183,7 +8075,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.614061690779229</v>
+        <v>1.532693777953897</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.588064044940426</v>
@@ -8272,7 +8164,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.614303262925629</v>
+        <v>1.530493489823769</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.526209720914882</v>
@@ -8361,7 +8253,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.60952289122312</v>
+        <v>1.525680605832046</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.625557979540691</v>
@@ -8450,7 +8342,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.644739610952569</v>
+        <v>1.547104025597293</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.542977526047592</v>
@@ -8539,7 +8431,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.630787080346214</v>
+        <v>1.527282439940589</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.538611236624289</v>
@@ -8628,7 +8520,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.604018974257062</v>
+        <v>1.502197662663703</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.488107754458145</v>
@@ -8717,7 +8609,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.598668419549068</v>
+        <v>1.494285620200454</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.656231579295606</v>
@@ -8806,7 +8698,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.603436149679462</v>
+        <v>1.49962663813458</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.438975612710395</v>
@@ -8895,7 +8787,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.600686822342825</v>
+        <v>1.499098639262139</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.61214741751778</v>
@@ -8984,7 +8876,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.588106214924439</v>
+        <v>1.489548649004021</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.613962514348297</v>
@@ -9073,7 +8965,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.585009016129243</v>
+        <v>1.490338155472283</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.503830238718631</v>
@@ -9162,7 +9054,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.586797672508815</v>
+        <v>1.488858019711679</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.535595957000315</v>
@@ -9251,7 +9143,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.619078975195143</v>
+        <v>1.515934312664474</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.44813793277925</v>
@@ -9340,7 +9232,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.615467137090459</v>
+        <v>1.520649577058375</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.626040882097401</v>
@@ -9429,7 +9321,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.627382345535224</v>
+        <v>1.538600275386772</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.45344013892444</v>
@@ -9518,7 +9410,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.626672299894366</v>
+        <v>1.540064443117623</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.551445841761092</v>
@@ -9607,7 +9499,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.622919518467743</v>
+        <v>1.543892701013035</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.596334453619026</v>
@@ -9696,7 +9588,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.585139936840607</v>
+        <v>1.522942650845999</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.366517914044977</v>
@@ -9785,7 +9677,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.580245743245194</v>
+        <v>1.52157561149523</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.260341856531106</v>
@@ -9874,7 +9766,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.616057766857007</v>
+        <v>1.557854692638445</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.225526465749895</v>
@@ -9963,7 +9855,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.630348297923154</v>
+        <v>1.578900124886911</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.510671791569605</v>
@@ -10052,7 +9944,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.640800944869428</v>
+        <v>1.596025438910114</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.388799731243699</v>
@@ -10141,7 +10033,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.641535157096446</v>
+        <v>1.598693165358084</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.30441515541447</v>
@@ -10230,7 +10122,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.642554780657752</v>
+        <v>1.5966358738891</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.405773116227805</v>
@@ -10319,7 +10211,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.617376402022764</v>
+        <v>1.573409493020138</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.378201104170254</v>
@@ -10408,7 +10300,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.60662773221256</v>
+        <v>1.548914432591715</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.391625568536012</v>
@@ -10497,7 +10389,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.598205686846816</v>
+        <v>1.529666390701278</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.41990884710582</v>
@@ -10586,7 +10478,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.596485621908742</v>
+        <v>1.526957442258107</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.526213571616232</v>
@@ -10675,7 +10567,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.590941084139105</v>
+        <v>1.517191574467198</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.384942978724595</v>
@@ -10764,7 +10656,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.593485252172998</v>
+        <v>1.519227571728046</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.437864689753515</v>
@@ -10853,7 +10745,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.569204047954037</v>
+        <v>1.500244849085176</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.305268782365424</v>
@@ -11139,7 +11031,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.379028853444336</v>
+        <v>1.359940536017099</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.087075352655527</v>
@@ -11228,7 +11120,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.389535007973878</v>
+        <v>1.367277226650477</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.116025024897723</v>
@@ -11317,7 +11209,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.407371274450455</v>
+        <v>1.379069403443599</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.036769999998554</v>
@@ -11406,7 +11298,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.421648014617431</v>
+        <v>1.387737862903447</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.067297911380352</v>
@@ -11495,7 +11387,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.411301832752712</v>
+        <v>1.374575062893068</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.106569565595388</v>
@@ -11584,7 +11476,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.397665460869077</v>
+        <v>1.359491675811717</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.998731139714725</v>
@@ -11673,7 +11565,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.431507866719275</v>
+        <v>1.388121299126938</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.977712666840785</v>
@@ -11762,7 +11654,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.457422680186828</v>
+        <v>1.399980838101788</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.11636330497307</v>
@@ -11851,7 +11743,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.46181746799125</v>
+        <v>1.401153305766231</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.168567207071408</v>
@@ -11940,7 +11832,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.480751242998168</v>
+        <v>1.418727132480276</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.145277398138493</v>
@@ -12029,7 +11921,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.538128245156927</v>
+        <v>1.453338210669551</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.517073127265719</v>
@@ -12118,7 +12010,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.543461201922695</v>
+        <v>1.448806173258952</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.611390248236302</v>
@@ -12207,7 +12099,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.531340711580331</v>
+        <v>1.429109214031354</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.556388042835726</v>
@@ -12296,7 +12188,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.530139707677057</v>
+        <v>1.432420943910386</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.385639483452499</v>
@@ -12385,7 +12277,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.539550691207424</v>
+        <v>1.436349203663904</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.410300908761656</v>
@@ -12474,7 +12366,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.540950815644786</v>
+        <v>1.441622645221078</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.436806741766198</v>
@@ -12563,7 +12455,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.542253176109221</v>
+        <v>1.446309629611792</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.528233195394543</v>
@@ -12652,7 +12544,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.549155013172608</v>
+        <v>1.453189719104537</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.425419212759018</v>
@@ -12741,7 +12633,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.542387054922483</v>
+        <v>1.450959986515269</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.406551938216205</v>
@@ -12830,7 +12722,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.54843582754351</v>
+        <v>1.458454402483719</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.355669168067135</v>
@@ -12919,7 +12811,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.588467613300248</v>
+        <v>1.48751024287194</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.528049792460701</v>
@@ -13008,7 +12900,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.582359275123754</v>
+        <v>1.484079453093864</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.636874524282754</v>
@@ -13097,7 +12989,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.589152029127133</v>
+        <v>1.493683137137117</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.49545151142309</v>
@@ -13186,7 +13078,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.595996918811072</v>
+        <v>1.505748026022027</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.580265823294262</v>
@@ -13275,7 +13167,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.600922349600032</v>
+        <v>1.514594090041007</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.488118548340869</v>
@@ -13364,7 +13256,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.595620849531101</v>
+        <v>1.517466871074497</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.512705416275063</v>
@@ -13453,7 +13345,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.609097685275057</v>
+        <v>1.534380088097199</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.379680755567014</v>
@@ -13542,7 +13434,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.604039637439445</v>
+        <v>1.537609010501921</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.498131170565609</v>
@@ -13631,7 +13523,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.581549163654217</v>
+        <v>1.52630316207807</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.437991190218658</v>
@@ -13720,7 +13612,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.56613377544428</v>
+        <v>1.51055354650576</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.536410648578894</v>
@@ -13809,7 +13701,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.540720461470044</v>
+        <v>1.485912198488985</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.722932918526614</v>
@@ -13898,7 +13790,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.537776658226897</v>
+        <v>1.482879700757787</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.656983480072573</v>
@@ -13987,7 +13879,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.530682618335188</v>
+        <v>1.485618561738706</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.581132840463479</v>
@@ -14076,7 +13968,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.539074304652944</v>
+        <v>1.489853248846914</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.854403373509593</v>
@@ -14165,7 +14057,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.539525605811142</v>
+        <v>1.489755149924233</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.536921142712411</v>
@@ -14254,7 +14146,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.547569093235211</v>
+        <v>1.495172454074388</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.709003123153988</v>
@@ -14343,7 +14235,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.54905091355044</v>
+        <v>1.492979057140087</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.750285101486506</v>
@@ -14432,7 +14324,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.545721989297271</v>
+        <v>1.489441302329154</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.68419867907588</v>
@@ -14521,7 +14413,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.537519911156723</v>
+        <v>1.480845849151768</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.787581036007673</v>
@@ -14610,7 +14502,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.520418515391957</v>
+        <v>1.46356223382568</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.891575961134746</v>
@@ -14699,7 +14591,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.515073086441538</v>
+        <v>1.461541093529415</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.686272878842797</v>
@@ -14788,7 +14680,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.505557841054067</v>
+        <v>1.452415811901475</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.835217115704623</v>
@@ -14877,7 +14769,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.520330063829571</v>
+        <v>1.461949843135936</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.718060165492982</v>
@@ -14966,7 +14858,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.530900816155248</v>
+        <v>1.474900832337133</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.762041182824029</v>
@@ -15055,7 +14947,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.547142877274178</v>
+        <v>1.489698413158504</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.663052700735472</v>
@@ -15144,7 +15036,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.56569373940982</v>
+        <v>1.505698405436883</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.851440097143916</v>
@@ -15233,7 +15125,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.566803448470239</v>
+        <v>1.509805992416405</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.760342042736934</v>
@@ -15322,7 +15214,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.541196246060538</v>
+        <v>1.490241060672457</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.643256014827951</v>
@@ -15411,7 +15303,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.554793293490707</v>
+        <v>1.509136175569556</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.359770756848764</v>
@@ -15500,7 +15392,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.559975915973979</v>
+        <v>1.512899988012663</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.550816349958788</v>
@@ -15589,7 +15481,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.566816392293753</v>
+        <v>1.521021597626388</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.779923103185435</v>
@@ -15678,7 +15570,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.567272065108834</v>
+        <v>1.526443314541186</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.613476077401288</v>
@@ -15767,7 +15659,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.569493400103309</v>
+        <v>1.533249825406613</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.544040057556952</v>
@@ -15856,7 +15748,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.56822214465224</v>
+        <v>1.535552277115035</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.674394466329082</v>
@@ -15945,7 +15837,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.574863846020887</v>
+        <v>1.540482740678515</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.630715816639226</v>
@@ -16034,7 +15926,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.566626192866727</v>
+        <v>1.510742287351343</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.585556311411241</v>
@@ -16123,7 +16015,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.565982990655636</v>
+        <v>1.501253188559296</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.655199126037897</v>
@@ -16212,7 +16104,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.572780896884453</v>
+        <v>1.513814223139993</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.675575913358792</v>
@@ -16301,7 +16193,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.557037242471378</v>
+        <v>1.499178714326708</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.613583680720774</v>
@@ -16390,7 +16282,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.558108925403811</v>
+        <v>1.49942603400728</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.803283245388654</v>
@@ -16479,7 +16371,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.539503430864147</v>
+        <v>1.483693886876089</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.654012898547325</v>
@@ -16765,7 +16657,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.704073732257833</v>
+        <v>1.598682854522955</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.376466933326915</v>
@@ -16854,7 +16746,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.711596583482106</v>
+        <v>1.604830504900722</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.354699233030174</v>
@@ -16943,7 +16835,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.703600924408785</v>
+        <v>1.594756813217906</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.249396762606452</v>
@@ -17032,7 +16924,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.699395521148753</v>
+        <v>1.594619582015602</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.40045140331703</v>
@@ -17121,7 +17013,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.69712980125722</v>
+        <v>1.589519366862847</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.286416965607827</v>
@@ -17210,7 +17102,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.695800717287963</v>
+        <v>1.586873227138294</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.185738026381753</v>
@@ -17299,7 +17191,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.706115109840664</v>
+        <v>1.599831838041672</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.9622758488012</v>
@@ -17388,7 +17280,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.702190293532088</v>
+        <v>1.584252740908407</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.189078373729942</v>
@@ -17477,7 +17369,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.695209892382195</v>
+        <v>1.569704254736523</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.838179340065313</v>
@@ -17566,7 +17458,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.695085244363733</v>
+        <v>1.56659643941591</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.41638766268136</v>
@@ -17655,7 +17547,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.693581685567491</v>
+        <v>1.566256820904286</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.39873691088333</v>
@@ -17744,7 +17636,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.692861426574954</v>
+        <v>1.561106554501127</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.43816398204433</v>
@@ -17833,7 +17725,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.694072616175544</v>
+        <v>1.565050212468712</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.39834036110368</v>
@@ -17922,7 +17814,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.686993528758049</v>
+        <v>1.556687356126175</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.792373857921839</v>
@@ -18011,7 +17903,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.679836723871963</v>
+        <v>1.554218012568297</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.318210165799744</v>
@@ -18100,7 +17992,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.682764037479836</v>
+        <v>1.560633910763623</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.359674195072658</v>
@@ -18189,7 +18081,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.686994949375412</v>
+        <v>1.561861918851291</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.162494428278055</v>
@@ -18278,7 +18170,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.708344991687571</v>
+        <v>1.585820688997968</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.500122295809084</v>
@@ -18367,7 +18259,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.706138351939822</v>
+        <v>1.579320659847554</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.352908212595617</v>
@@ -18456,7 +18348,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.713063475625901</v>
+        <v>1.592297176762511</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.331796976828999</v>
@@ -18545,7 +18437,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.719496885402847</v>
+        <v>1.597034675066098</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.484139190601685</v>
@@ -18634,7 +18526,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.712980019472801</v>
+        <v>1.588873087897803</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.351386765220285</v>
@@ -18723,7 +18615,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.709174994416754</v>
+        <v>1.591681016087932</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.218480061670808</v>
@@ -18812,7 +18704,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.722404088959343</v>
+        <v>1.607638245957632</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.078471328848107</v>
@@ -18901,7 +18793,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.729265448880938</v>
+        <v>1.615935200565786</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.584110916364708</v>
@@ -18990,7 +18882,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.729919008176697</v>
+        <v>1.619543217085308</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.305992753347529</v>
@@ -19079,7 +18971,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.730126095799494</v>
+        <v>1.627862789737256</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.207031972223694</v>
@@ -19168,7 +19060,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.736127759858267</v>
+        <v>1.631272334748585</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.434194515582968</v>
@@ -19257,7 +19149,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.747366059088413</v>
+        <v>1.64174439926243</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.795847822214165</v>
@@ -19346,7 +19238,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.745838635403247</v>
+        <v>1.637609381041486</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.249865496572575</v>
@@ -19435,7 +19327,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.741667657608217</v>
+        <v>1.628148723197866</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.180642196306289</v>
@@ -19524,7 +19416,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.736126330090006</v>
+        <v>1.619042060994505</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.297733905876387</v>
@@ -19613,7 +19505,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.727017511049326</v>
+        <v>1.60836289453589</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.025609319842045</v>
@@ -19702,7 +19594,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.734954451035132</v>
+        <v>1.611063019055303</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.131824167875588</v>
@@ -19791,7 +19683,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.726174136777773</v>
+        <v>1.594667116307359</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.18813547123536</v>
@@ -19880,7 +19772,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.713100550482689</v>
+        <v>1.579355671436764</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.324785030476483</v>
@@ -19969,7 +19861,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.709724383840493</v>
+        <v>1.569416564952393</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.980478283246403</v>
@@ -20058,7 +19950,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.706864945133263</v>
+        <v>1.567091155213841</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.27667203292084</v>
@@ -20147,7 +20039,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.699392811443704</v>
+        <v>1.562755014370293</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.073927986451923</v>
@@ -20236,7 +20128,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.690701960100115</v>
+        <v>1.556025800840292</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.892748552243597</v>
@@ -20325,7 +20217,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.682096794662379</v>
+        <v>1.554359044926093</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.991898458147618</v>
@@ -20414,7 +20306,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.673285158934052</v>
+        <v>1.544166572262487</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.102031876984833</v>
@@ -20503,7 +20395,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.663861832023087</v>
+        <v>1.538771858600526</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.885407796507112</v>
@@ -20592,7 +20484,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.652563300029857</v>
+        <v>1.536159464846294</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.11172262839631</v>
@@ -20681,7 +20573,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.660048943968604</v>
+        <v>1.547867542096537</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.594801038275182</v>
@@ -20770,7 +20662,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.646500515852346</v>
+        <v>1.53809016569734</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.535824735713055</v>
@@ -20859,7 +20751,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.650767610434916</v>
+        <v>1.551392695870478</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.440475052188054</v>
@@ -20948,7 +20840,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.636564128717519</v>
+        <v>1.548911585263472</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.257681901182576</v>
@@ -21037,7 +20929,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.626036633766173</v>
+        <v>1.539891129394104</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.096130405473065</v>
@@ -21126,7 +21018,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.622721596250884</v>
+        <v>1.54183267217891</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.024811380681241</v>
@@ -21215,7 +21107,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.628322272265889</v>
+        <v>1.556433643107007</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.184949162659087</v>
@@ -21304,7 +21196,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.631356394386858</v>
+        <v>1.566620424297891</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.088522580477658</v>
@@ -21393,7 +21285,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.630349931362596</v>
+        <v>1.572882945401239</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.392857397023799</v>
@@ -21482,7 +21374,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.636320532191252</v>
+        <v>1.578778223974198</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.398623060336872</v>
@@ -21571,7 +21463,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.649831107053006</v>
+        <v>1.586443081921215</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.550836152307553</v>
@@ -21660,7 +21552,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.637001500186996</v>
+        <v>1.555604440870094</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.570822473854803</v>
@@ -21749,7 +21641,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.63211111951509</v>
+        <v>1.539598935697859</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.488439255512167</v>
@@ -21838,7 +21730,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.628839558597848</v>
+        <v>1.538005430035956</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.355365025877684</v>
@@ -21927,7 +21819,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.637394280587467</v>
+        <v>1.539935806855459</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.576650332920298</v>
@@ -22016,7 +21908,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.635180877124783</v>
+        <v>1.536987923601307</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.591747675868733</v>
@@ -22105,7 +21997,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.650147994246532</v>
+        <v>1.550223872675434</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.47249376068828</v>
@@ -22391,7 +22283,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.698397811916395</v>
+        <v>1.576679798913951</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.402804254078246</v>
@@ -22480,7 +22372,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.698387614737876</v>
+        <v>1.5805309096214</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.191231062646864</v>
@@ -22569,7 +22461,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.701927561944788</v>
+        <v>1.583901293788082</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.264111422352235</v>
@@ -22658,7 +22550,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.695114697980118</v>
+        <v>1.576981966757414</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.338214440507453</v>
@@ -22747,7 +22639,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.69034329455441</v>
+        <v>1.566047126877166</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.029484967409576</v>
@@ -22836,7 +22728,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.689517576309278</v>
+        <v>1.555201057225031</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.89692471070033</v>
@@ -22925,7 +22817,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.694637942167731</v>
+        <v>1.570326922423245</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.475166858644124</v>
@@ -23014,7 +22906,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.694641742354364</v>
+        <v>1.573928042263011</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.551475454326817</v>
@@ -23103,7 +22995,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.690494898080969</v>
+        <v>1.573461096880198</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.729024799960675</v>
@@ -23192,7 +23084,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.690634807165404</v>
+        <v>1.577574812269722</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.699380161954483</v>
@@ -23281,7 +23173,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.694803902316977</v>
+        <v>1.577782982704718</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.454117180349663</v>
@@ -23370,7 +23262,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.690338378392317</v>
+        <v>1.573599398935729</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.828639525408824</v>
@@ -23459,7 +23351,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.689500724815997</v>
+        <v>1.581298807947039</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.621574041483972</v>
@@ -23548,7 +23440,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.687890031589559</v>
+        <v>1.58016628482314</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.633381798792755</v>
@@ -23637,7 +23529,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.688437477625556</v>
+        <v>1.583703142041776</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.716035403173833</v>
@@ -23726,7 +23618,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.688779005661387</v>
+        <v>1.584319795873086</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.518669167554518</v>
@@ -23815,7 +23707,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.693094387560807</v>
+        <v>1.588799284818218</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.765821311634242</v>
@@ -23904,7 +23796,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.69196710304619</v>
+        <v>1.586816239578295</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.605194408552913</v>
@@ -23993,7 +23885,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.69473242725196</v>
+        <v>1.594198879786078</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.243786329983722</v>
@@ -24082,7 +23974,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.699718765242135</v>
+        <v>1.599344770387504</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.830017337922501</v>
@@ -24171,7 +24063,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.699703720822574</v>
+        <v>1.604754148416483</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.685098135292082</v>
@@ -24260,7 +24152,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.699936257394461</v>
+        <v>1.602579088655897</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.493468576205771</v>
@@ -24349,7 +24241,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.694805901632316</v>
+        <v>1.587913011461524</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.159089842031623</v>
@@ -24438,7 +24330,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.702544803512468</v>
+        <v>1.600036726778137</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.282316824995675</v>
@@ -24527,7 +24419,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.707261001094157</v>
+        <v>1.609136047396253</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.891883198160604</v>
@@ -24616,7 +24508,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.703320044724569</v>
+        <v>1.606725873457689</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.551406456057236</v>
@@ -24705,7 +24597,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.706127293453201</v>
+        <v>1.601867094847112</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.641713078327405</v>
@@ -24794,7 +24686,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.717043004558997</v>
+        <v>1.606123561963183</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.717709791060003</v>
@@ -24883,7 +24775,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.720424694053753</v>
+        <v>1.607611916760414</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.386382877780774</v>
@@ -24972,7 +24864,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.72441456365599</v>
+        <v>1.615342990685888</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.230215309408715</v>
@@ -25061,7 +24953,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.730136182152094</v>
+        <v>1.620838233191157</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.621755740900083</v>
@@ -25150,7 +25042,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.723208221237498</v>
+        <v>1.606942777881654</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.619792889669309</v>
@@ -25239,7 +25131,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.717676281039686</v>
+        <v>1.601014380388663</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.631482913315413</v>
@@ -25328,7 +25220,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.718988426865591</v>
+        <v>1.595044054745828</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.423809831418425</v>
@@ -25417,7 +25309,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.726454589403185</v>
+        <v>1.604309427899171</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.435161425276268</v>
@@ -25506,7 +25398,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.720187703562579</v>
+        <v>1.589777861579261</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.834670260983184</v>
@@ -25595,7 +25487,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.7233072633299</v>
+        <v>1.589017074643602</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.639565563238664</v>
@@ -25684,7 +25576,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.722980236754207</v>
+        <v>1.593211350360077</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.498457935691288</v>
@@ -25773,7 +25665,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.718479400458468</v>
+        <v>1.588884591812602</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.853124620132809</v>
@@ -25862,7 +25754,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.711765073990678</v>
+        <v>1.580910568601402</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.160946187947724</v>
@@ -25951,7 +25843,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.705445887382579</v>
+        <v>1.570654882808878</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.345043976712793</v>
@@ -26040,7 +25932,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.704226299629575</v>
+        <v>1.57202105720717</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.694402238155873</v>
@@ -26129,7 +26021,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.707220226677155</v>
+        <v>1.576704789761993</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.256847649424788</v>
@@ -26218,7 +26110,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.713690087634722</v>
+        <v>1.590106665514862</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.819327460481017</v>
@@ -26307,7 +26199,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.714817063093256</v>
+        <v>1.58964345183078</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.421614153113568</v>
@@ -26396,7 +26288,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.705046165758663</v>
+        <v>1.585080618033038</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.685613679784458</v>
@@ -26485,7 +26377,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.709839416620138</v>
+        <v>1.596604797201449</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.806057249819385</v>
@@ -26574,7 +26466,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.709414626646437</v>
+        <v>1.593941752904048</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.326324280202283</v>
@@ -26663,7 +26555,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.708935432219195</v>
+        <v>1.593085065377871</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.502268271036138</v>
@@ -26752,7 +26644,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.708097632465295</v>
+        <v>1.595422729016189</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.241333471963407</v>
@@ -26841,7 +26733,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.692657198208709</v>
+        <v>1.595606356013622</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.601707836321181</v>
@@ -26930,7 +26822,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.682951387524231</v>
+        <v>1.589005373727794</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.015097898738531</v>
@@ -27019,7 +26911,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.677343377321186</v>
+        <v>1.588900830284851</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.622134247570478</v>
@@ -27108,7 +27000,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.683620999994864</v>
+        <v>1.596817646826842</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.415008187001926</v>
@@ -27197,7 +27089,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.695397658710126</v>
+        <v>1.608762369948282</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.502715748844778</v>
@@ -27286,7 +27178,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.699888600638391</v>
+        <v>1.618907445502309</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.710358784322415</v>
@@ -27375,7 +27267,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.699717853512637</v>
+        <v>1.616353410533528</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.63988406968979</v>
@@ -27464,7 +27356,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.693744425813408</v>
+        <v>1.614457137918147</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.628639132109344</v>
@@ -27553,7 +27445,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.687485152946138</v>
+        <v>1.603977791904869</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.580111677064923</v>
@@ -27642,7 +27534,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.680116867978615</v>
+        <v>1.601125799750611</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.560786370629603</v>
@@ -27731,7 +27623,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.689879577777674</v>
+        <v>1.60617011812393</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.535038685265389</v>
@@ -28017,7 +27909,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.542282856242992</v>
+        <v>1.499785321114463</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.804987246848355</v>
@@ -28106,7 +27998,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.555578836054531</v>
+        <v>1.510626139574833</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.572352095459785</v>
@@ -28195,7 +28087,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.586877053244472</v>
+        <v>1.538675406698339</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.827446595082922</v>
@@ -28284,7 +28176,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.602374242369521</v>
+        <v>1.542179015095797</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.661261366845474</v>
@@ -28373,7 +28265,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.592729345617426</v>
+        <v>1.529659056069294</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.77138708903021</v>
@@ -28462,7 +28354,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.590296288505966</v>
+        <v>1.527062791319573</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.753618213262635</v>
@@ -28551,7 +28443,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.59488260037136</v>
+        <v>1.527642863373756</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.719666358489305</v>
@@ -28640,7 +28532,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.602371359470047</v>
+        <v>1.527756996289959</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.41320241201722</v>
@@ -28729,7 +28621,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.594819240992439</v>
+        <v>1.530930641988846</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.97371863333344</v>
@@ -28818,7 +28710,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.610187031032444</v>
+        <v>1.538760950916378</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.375919714348302</v>
@@ -28907,7 +28799,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.616247499681887</v>
+        <v>1.53032362657799</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.252823916098124</v>
@@ -28996,7 +28888,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.629439237321273</v>
+        <v>1.539154884697401</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.226356971937284</v>
@@ -29085,7 +28977,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.621790194285097</v>
+        <v>1.532182122504565</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.027975254555886</v>
@@ -29174,7 +29066,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.618074473379151</v>
+        <v>1.52614720324549</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.909906207475121</v>
@@ -29263,7 +29155,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.628479875460485</v>
+        <v>1.530001204978798</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.210305379769729</v>
@@ -29352,7 +29244,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.630123423885994</v>
+        <v>1.534144338472792</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.115106546638432</v>
@@ -29441,7 +29333,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.635572169122466</v>
+        <v>1.542571434598078</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.091873953667997</v>
@@ -29530,7 +29422,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.631199088975991</v>
+        <v>1.539208187676308</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.126976813950076</v>
@@ -29619,7 +29511,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.615206097611598</v>
+        <v>1.530339330760791</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.864655092751033</v>
@@ -29708,7 +29600,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.616985058307494</v>
+        <v>1.534599443524484</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.86760010516862</v>
@@ -29797,7 +29689,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.6144673617876</v>
+        <v>1.535417540883439</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.047046469330127</v>
@@ -29886,7 +29778,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.604395301393171</v>
+        <v>1.530683778904499</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.622185017468821</v>
@@ -29975,7 +29867,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.614267474606265</v>
+        <v>1.53382519708275</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.872137590299849</v>
@@ -30064,7 +29956,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.622380350135197</v>
+        <v>1.544340095711396</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.710882675321155</v>
@@ -30153,7 +30045,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.627231628063564</v>
+        <v>1.555284076250087</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.787561083743436</v>
@@ -30242,7 +30134,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.631259861058063</v>
+        <v>1.56678031749392</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.859540057817686</v>
@@ -30331,7 +30223,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.632859334345847</v>
+        <v>1.568703458991249</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.813151949835821</v>
@@ -30420,7 +30312,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.620920724637164</v>
+        <v>1.560710335992343</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.871986193666054</v>
@@ -30509,7 +30401,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.62883628244192</v>
+        <v>1.575881677024847</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.754264016673566</v>
@@ -30598,7 +30490,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.620014032988473</v>
+        <v>1.573932240268099</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.721316471079445</v>
@@ -30687,7 +30579,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.595384418070709</v>
+        <v>1.556774099441511</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.943653015774746</v>
@@ -30776,7 +30668,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.588924369502474</v>
+        <v>1.539519503070408</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.779801673401177</v>
@@ -30865,7 +30757,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.588108916485591</v>
+        <v>1.539168384719544</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.952134904520588</v>
@@ -30954,7 +30846,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.600222025810804</v>
+        <v>1.542543210092208</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.837353518662862</v>
@@ -31043,7 +30935,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.589497178561643</v>
+        <v>1.535768343515856</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.684786922464994</v>
@@ -31132,7 +31024,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.584243500769405</v>
+        <v>1.531193665318053</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.786413582657122</v>
@@ -31221,7 +31113,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.592925491773403</v>
+        <v>1.536674591412894</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.948518124428535</v>
@@ -31310,7 +31202,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.584785936622273</v>
+        <v>1.526087055753754</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.946364178852402</v>
@@ -31399,7 +31291,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.576643066516411</v>
+        <v>1.514577064019582</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.986431743868605</v>
@@ -31488,7 +31380,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.571209033183507</v>
+        <v>1.507308091491812</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.927667609638448</v>
@@ -31577,7 +31469,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.568224447639974</v>
+        <v>1.504364287776362</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.99857571399756</v>
@@ -31666,7 +31558,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.56791107249928</v>
+        <v>1.502885168415502</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.89731630872641</v>
@@ -31755,7 +31647,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.575842674802325</v>
+        <v>1.509865190868719</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.84780412966412</v>
@@ -31844,7 +31736,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.573095901545591</v>
+        <v>1.504071403955988</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.954019799944903</v>
@@ -31933,7 +31825,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.587057155122261</v>
+        <v>1.509623933182605</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.825400149850797</v>
@@ -32022,7 +31914,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.601597906268937</v>
+        <v>1.520293042039798</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.141454306356105</v>
@@ -32111,7 +32003,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.604888278225812</v>
+        <v>1.526956211367466</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.057103725076354</v>
@@ -32200,7 +32092,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.603787223200526</v>
+        <v>1.532127271779943</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.070130617012691</v>
@@ -32289,7 +32181,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.61149072642359</v>
+        <v>1.536481091334287</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.779751853336772</v>
@@ -32378,7 +32270,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.612277503074196</v>
+        <v>1.532513375192047</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.144867639027632</v>
@@ -32467,7 +32359,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.606502501379702</v>
+        <v>1.532685930562185</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.895075099728591</v>
@@ -32556,7 +32448,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.603717755766948</v>
+        <v>1.52733857344765</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.834857870876538</v>
@@ -32645,7 +32537,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.619220114277942</v>
+        <v>1.537138188867863</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.900949307675841</v>
@@ -32734,7 +32626,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.625615733307892</v>
+        <v>1.546274418181736</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.961503208352887</v>
@@ -32823,7 +32715,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.622754452814451</v>
+        <v>1.5497602816832</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.912599630064371</v>
@@ -32912,7 +32804,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.612637695104356</v>
+        <v>1.537870852865444</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.809359609974925</v>
@@ -33001,7 +32893,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.61286489619289</v>
+        <v>1.546354823259397</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.749817318005746</v>
@@ -33090,7 +32982,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.619283085053857</v>
+        <v>1.555986593317222</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.886291724061412</v>
@@ -33179,7 +33071,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.617187192011901</v>
+        <v>1.556789049724338</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.163403099824382</v>
@@ -33268,7 +33160,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.615040604301501</v>
+        <v>1.554475633617318</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.135380879771588</v>
@@ -33357,7 +33249,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.605859232929694</v>
+        <v>1.546742115927166</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.042481481615332</v>
@@ -33643,7 +33535,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.44426161037504</v>
+        <v>1.39169847013931</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.422627214257949</v>
@@ -33732,7 +33624,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.458753388555083</v>
+        <v>1.404612814072711</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.32830503730152</v>
@@ -33821,7 +33713,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.483360563545052</v>
+        <v>1.425159462817941</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.449250007427934</v>
@@ -33910,7 +33802,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.50468958829709</v>
+        <v>1.429946626698919</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.462818823466213</v>
@@ -33999,7 +33891,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.47552956506316</v>
+        <v>1.406237853647376</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.298094083222467</v>
@@ -34088,7 +33980,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.446670966767895</v>
+        <v>1.375761279913051</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.283076993186865</v>
@@ -34177,7 +34069,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.466447920454225</v>
+        <v>1.398716693241576</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.48295999380585</v>
@@ -34266,7 +34158,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.461465251969125</v>
+        <v>1.38589560541666</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.361175008125073</v>
@@ -34355,7 +34247,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.452505637033679</v>
+        <v>1.386749375843215</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.53684384578137</v>
@@ -34444,7 +34336,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.465727105627028</v>
+        <v>1.398024843499702</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.495854871131176</v>
@@ -34533,7 +34425,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.465556308338513</v>
+        <v>1.392266210261753</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.521468449825347</v>
@@ -34622,7 +34514,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.463697629355984</v>
+        <v>1.386702880609945</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.4261286452723</v>
@@ -34711,7 +34603,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.462994051508695</v>
+        <v>1.388609837788537</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.509552998092202</v>
@@ -34800,7 +34692,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.464952961753478</v>
+        <v>1.391428997631126</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.376445840785899</v>
@@ -34889,7 +34781,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.472154296568525</v>
+        <v>1.401736920929366</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.484403816338355</v>
@@ -34978,7 +34870,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.476744122373131</v>
+        <v>1.408426249390896</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.323149505741286</v>
@@ -35067,7 +34959,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.480732166492051</v>
+        <v>1.416544993001623</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.500856056291929</v>
@@ -35156,7 +35048,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.478403218912514</v>
+        <v>1.418172935372062</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.539854489600173</v>
@@ -35245,7 +35137,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.475150945127616</v>
+        <v>1.415409839242874</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.313338610347081</v>
@@ -35334,7 +35226,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.484631829837144</v>
+        <v>1.423259430733119</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.27255630032885</v>
@@ -35423,7 +35315,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.539770715781116</v>
+        <v>1.4667166342655</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.309332473684803</v>
@@ -35512,7 +35404,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.543138049332219</v>
+        <v>1.466286222398385</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.365382580835493</v>
@@ -35601,7 +35493,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.576086092173733</v>
+        <v>1.489503356069229</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.366826859645554</v>
@@ -35690,7 +35582,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.584594633385991</v>
+        <v>1.50503108870783</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.766982017396974</v>
@@ -35779,7 +35671,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.595941182455303</v>
+        <v>1.518122750113278</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.56459067834424</v>
@@ -35868,7 +35760,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.592636060596681</v>
+        <v>1.525791988788769</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.426947089436259</v>
@@ -35957,7 +35849,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.592018218919217</v>
+        <v>1.52792696133678</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.536273410930545</v>
@@ -36046,7 +35938,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.583275292972319</v>
+        <v>1.511564080467679</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.432037232105738</v>
@@ -36135,7 +36027,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574977520571149</v>
+        <v>1.506611524495828</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.38392516919294</v>
@@ -36224,7 +36116,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.578334267909013</v>
+        <v>1.510730308599407</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.71641434467695</v>
@@ -36313,7 +36205,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.55468405978512</v>
+        <v>1.486824111032261</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.659546047125116</v>
@@ -36402,7 +36294,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.552675562280601</v>
+        <v>1.474950058971105</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.566276359434126</v>
@@ -36491,7 +36383,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.557563545135443</v>
+        <v>1.474205503032299</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.614668657740035</v>
@@ -36580,7 +36472,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.57605227694294</v>
+        <v>1.486558005811935</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.488584344167208</v>
@@ -36669,7 +36561,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.561194189957987</v>
+        <v>1.477430019996649</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.395236594774196</v>
@@ -36758,7 +36650,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.540009095899993</v>
+        <v>1.455099929095516</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.420768330281215</v>
@@ -36847,7 +36739,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.540759041254177</v>
+        <v>1.457941126159597</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.659108118359977</v>
@@ -36936,7 +36828,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.541418329570248</v>
+        <v>1.45929931022894</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.525295343820635</v>
@@ -37025,7 +36917,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.536898561388861</v>
+        <v>1.449687830521439</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.54398349859168</v>
@@ -37114,7 +37006,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.528885107427952</v>
+        <v>1.44731394262207</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.632606109239604</v>
@@ -37203,7 +37095,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.522406949020723</v>
+        <v>1.442707977245921</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.593517651929878</v>
@@ -37292,7 +37184,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.524562154389743</v>
+        <v>1.44992906247367</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.569867301757052</v>
@@ -37381,7 +37273,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.546441172564364</v>
+        <v>1.467927866047164</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.560046301485515</v>
@@ -37470,7 +37362,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.544576554204212</v>
+        <v>1.47394989711833</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.441711695189617</v>
@@ -37559,7 +37451,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.553892426695475</v>
+        <v>1.480212461965419</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.35091945022091</v>
@@ -37648,7 +37540,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.546039480589521</v>
+        <v>1.476928179966871</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.504516787839989</v>
@@ -37737,7 +37629,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.539164679198965</v>
+        <v>1.480242621865688</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.483248774031343</v>
@@ -37826,7 +37718,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.510199655588732</v>
+        <v>1.459917122842531</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.556148626217612</v>
@@ -37915,7 +37807,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.512310059041666</v>
+        <v>1.461268940345746</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.393937270365996</v>
@@ -38004,7 +37896,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.542539817237833</v>
+        <v>1.484880608342027</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.285314788514595</v>
@@ -38093,7 +37985,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.535100415553278</v>
+        <v>1.486779212205533</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.533342279322944</v>
@@ -38182,7 +38074,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.533426787444444</v>
+        <v>1.487235868760281</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.350764685458308</v>
@@ -38271,7 +38163,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.541922867989352</v>
+        <v>1.503248222234963</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.358987573411734</v>
@@ -38360,7 +38252,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.544790964538626</v>
+        <v>1.512576926515169</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.537417062175393</v>
@@ -38449,7 +38341,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.534532244730355</v>
+        <v>1.502236960214114</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.365285371505754</v>
@@ -38538,7 +38430,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.53695775931384</v>
+        <v>1.498848480564406</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.420540703498773</v>
@@ -38627,7 +38519,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.536581413427837</v>
+        <v>1.491171765146352</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.45709445369742</v>
@@ -38716,7 +38608,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.542781742700349</v>
+        <v>1.502158883838215</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.539208905218246</v>
@@ -38805,7 +38697,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.544746502373172</v>
+        <v>1.503168016933142</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.440817671670415</v>
@@ -38894,7 +38786,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.556891360738174</v>
+        <v>1.516726367925908</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.439677460810902</v>
@@ -38983,7 +38875,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.543613435720478</v>
+        <v>1.50529240104513</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.534598750208665</v>
